--- a/public/SUMMATIVE ASSESSMENT.xlsx
+++ b/public/SUMMATIVE ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F394B99E-3118-429A-B021-870F8EEB878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63DEF3-94C8-4881-8457-EFF094DBA9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDE87D37-6CC1-440A-B645-24F1BA7D41A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>admission</t>
   </si>
@@ -55,16 +55,67 @@
   </si>
   <si>
     <t>urdu</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Ayaan</t>
+  </si>
+  <si>
+    <t>Hannan</t>
+  </si>
+  <si>
+    <t>Sadeed</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>Bashir Ahmad Kumar</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>ZXY</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>8th</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>6th</t>
+  </si>
+  <si>
+    <t>7th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,162 +457,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08FCAA-3F6C-478E-A028-23DC316F9A5E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>40</v>
       </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>101</v>
       </c>
-      <c r="B3">
+      <c r="E3">
         <v>40</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
         <v>34</v>
       </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
         <v>102</v>
       </c>
-      <c r="B4">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>23</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
         <v>103</v>
       </c>
-      <c r="B5">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
         <v>34</v>
       </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>23</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
         <v>104</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>40</v>
       </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
         <v>34</v>
       </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/SUMMATIVE ASSESSMENT.xlsx
+++ b/public/SUMMATIVE ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F63DEF3-94C8-4881-8457-EFF094DBA9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985B7254-A635-4E9E-B29C-73146A616965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDE87D37-6CC1-440A-B645-24F1BA7D41A2}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>34</v>
@@ -649,10 +649,10 @@
         <v>104</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>34</v>

--- a/public/SUMMATIVE ASSESSMENT.xlsx
+++ b/public/SUMMATIVE ASSESSMENT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985B7254-A635-4E9E-B29C-73146A616965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EB812-7D8F-46B1-A5CA-C30F095C6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDE87D37-6CC1-440A-B645-24F1BA7D41A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t>admission</t>
   </si>
@@ -60,30 +60,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>Ayaan</t>
-  </si>
-  <si>
-    <t>Hannan</t>
-  </si>
-  <si>
-    <t>Sadeed</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
     <t>father</t>
   </si>
   <si>
-    <t>Bashir Ahmad Kumar</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>ZXY</t>
-  </si>
-  <si>
     <t>class</t>
   </si>
   <si>
@@ -100,13 +79,433 @@
   </si>
   <si>
     <t>7th</t>
+  </si>
+  <si>
+    <t>SHAKIR AHMAD KHAN</t>
+  </si>
+  <si>
+    <t>KAMRAN AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>BASHARAT THIKRIYA GUJJAR</t>
+  </si>
+  <si>
+    <t>SAHIL AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>MUBASHIR AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>ZAKIR AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>TOIB-UN-NISA</t>
+  </si>
+  <si>
+    <t>BURHAN AHMAD KHAN</t>
+  </si>
+  <si>
+    <t>ATHAR AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>UZMA SHABIR</t>
+  </si>
+  <si>
+    <t>SEERAT JAN</t>
+  </si>
+  <si>
+    <t>SAHIL RASOOL SOFI</t>
+  </si>
+  <si>
+    <t>SAHIL AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>SIMRAN JAN</t>
+  </si>
+  <si>
+    <t>GOWHER AHMAD DAR</t>
+  </si>
+  <si>
+    <t>SHABNAM BANO</t>
+  </si>
+  <si>
+    <t>SAJID AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>SHOKEEN AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>ASMA SHABIR</t>
+  </si>
+  <si>
+    <t>JAVEED AHMAD KHAN</t>
+  </si>
+  <si>
+    <t>ARBIA HASSAN</t>
+  </si>
+  <si>
+    <t>KAMRAN ZAHOOR</t>
+  </si>
+  <si>
+    <t>SAHIL AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>NAIMA</t>
+  </si>
+  <si>
+    <t>NAZBEENA BANO</t>
+  </si>
+  <si>
+    <t>REEHANA BANO</t>
+  </si>
+  <si>
+    <t>INSHA ZAHOOR</t>
+  </si>
+  <si>
+    <t>NAHIDA YOUSAF</t>
+  </si>
+  <si>
+    <t>ASIF AHMAD SOFI</t>
+  </si>
+  <si>
+    <t>MOHSIN AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>SAYIMA BASHIR</t>
+  </si>
+  <si>
+    <t>MEHRAN AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>AFSANA BANO</t>
+  </si>
+  <si>
+    <t>MEHNAZ BANO</t>
+  </si>
+  <si>
+    <t>AIMAN JAN</t>
+  </si>
+  <si>
+    <t>AZKA SHABIR</t>
+  </si>
+  <si>
+    <t>IQRA PARVEEN</t>
+  </si>
+  <si>
+    <t>MISBA PARVEEN</t>
+  </si>
+  <si>
+    <t>NAYEEMA</t>
+  </si>
+  <si>
+    <t>MUSKAN BASHIR</t>
+  </si>
+  <si>
+    <t>IQRA JAN</t>
+  </si>
+  <si>
+    <t>AHSIA JAN</t>
+  </si>
+  <si>
+    <t>SAIMA YOUSAF</t>
+  </si>
+  <si>
+    <t>ZAINAB ASHRAF</t>
+  </si>
+  <si>
+    <t>SAIMA MAJEED</t>
+  </si>
+  <si>
+    <t>SADAF JAN</t>
+  </si>
+  <si>
+    <t>SOHEEN AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>MEHREEN</t>
+  </si>
+  <si>
+    <t>HADIA MAJEED</t>
+  </si>
+  <si>
+    <t>INSHA PARVEEN</t>
+  </si>
+  <si>
+    <t>TABIA FEROZ</t>
+  </si>
+  <si>
+    <t>SUHAIL AHMAD BABA</t>
+  </si>
+  <si>
+    <t>FAIZAN AHMAD GANIE</t>
+  </si>
+  <si>
+    <t>AYAN MUZAFFAR GUROO</t>
+  </si>
+  <si>
+    <t>SURIYA JAN</t>
+  </si>
+  <si>
+    <t>FAHEEM AHMAD DAR</t>
+  </si>
+  <si>
+    <t>AKSA FAROOQ</t>
+  </si>
+  <si>
+    <t>OMMAN ISHFAQ RATHER</t>
+  </si>
+  <si>
+    <t>EHSAN IRSHAD BHAT</t>
+  </si>
+  <si>
+    <t>FAINAZ</t>
+  </si>
+  <si>
+    <t>JUNAID AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>ARBEENA FAROOQ</t>
+  </si>
+  <si>
+    <t>SADAM HUSSAIN GOJER</t>
+  </si>
+  <si>
+    <t>RIZWAN AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>ZAINAB ZAHOOR</t>
+  </si>
+  <si>
+    <t>ZEENAT JAN</t>
+  </si>
+  <si>
+    <t>ADFAR BASHIR</t>
+  </si>
+  <si>
+    <t>ASMA SAJAD</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>DAR TALIB</t>
+  </si>
+  <si>
+    <t>ZOHRA</t>
+  </si>
+  <si>
+    <t>ZOHARA JAN</t>
+  </si>
+  <si>
+    <t>VIHAAN</t>
+  </si>
+  <si>
+    <t>FAIQA JAN</t>
+  </si>
+  <si>
+    <t>TOIBA RAMZAN</t>
+  </si>
+  <si>
+    <t>HAFSA NAZIR</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SAQIB DAR</t>
+  </si>
+  <si>
+    <t>TALIB AHMAD KUMAR</t>
+  </si>
+  <si>
+    <t>MOMIN AHMAD KUMAR</t>
+  </si>
+  <si>
+    <t>BASHARAT AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>WASEEM AHMAD GUJAR</t>
+  </si>
+  <si>
+    <t>ANJUMAN MANZOOR</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>GHULAM NABI KHAN</t>
+  </si>
+  <si>
+    <t>GHULAM HASSAN BHAT</t>
+  </si>
+  <si>
+    <t>CHANDI THIKRIYA GUJJAR</t>
+  </si>
+  <si>
+    <t>ABDUL REHMAN RATHER</t>
+  </si>
+  <si>
+    <t>SHOWKAT AHMAD GUJJAR</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALTAF GUJJAR</t>
+  </si>
+  <si>
+    <t>GULAB KHAN</t>
+  </si>
+  <si>
+    <t>GULAM HASSAN BHAT</t>
+  </si>
+  <si>
+    <t>SHABIR AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>NISAR AHMAD DAR</t>
+  </si>
+  <si>
+    <t>GULAM RASOOL SOFI</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MAQBOOL BHAT</t>
+  </si>
+  <si>
+    <t>MUMTAZ AHMAD GUJJAR CHECHE</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHAFI GUJJAR CHECHE</t>
+  </si>
+  <si>
+    <t>TOTA KHAN</t>
+  </si>
+  <si>
+    <t>ZAHOOR AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>ABDUL MAJEED GUJJAR</t>
+  </si>
+  <si>
+    <t>MOHAMMAD YOUSAF KHAN</t>
+  </si>
+  <si>
+    <t>GULZAR AHMAD KHAN</t>
+  </si>
+  <si>
+    <t>GULAM QADIR GUJJAR CHECHI</t>
+  </si>
+  <si>
+    <t>MOHAMMAD YOUSAF GUJJAR</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RAMZAN SOFI</t>
+  </si>
+  <si>
+    <t>ZUBAIR AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>BASHIR AHMAD GANIE</t>
+  </si>
+  <si>
+    <t>FAREED AHMAD SHAH</t>
+  </si>
+  <si>
+    <t>GHULAM RASOOL GUJJAR</t>
+  </si>
+  <si>
+    <t>TOTA KHAN GUJJAR</t>
+  </si>
+  <si>
+    <t>HILAL AHMAD GANIE</t>
+  </si>
+  <si>
+    <t>QAYOOM AHMAD SALMANI</t>
+  </si>
+  <si>
+    <t>BASHIR AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>GHULAM QADIR GUJJAR CHEECHI</t>
+  </si>
+  <si>
+    <t>MOHAMMAD YOUSAF KHAN CHECHI</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ASHRAF DAR</t>
+  </si>
+  <si>
+    <t>MAJEED AHMAD GOJER</t>
+  </si>
+  <si>
+    <t>ABDUL MAJEED GANIE</t>
+  </si>
+  <si>
+    <t>FAROZ AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>PARVAIZ AHMAD BABA</t>
+  </si>
+  <si>
+    <t>MUZAFFAR AHMAD GUROO</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ABDULLAH DAR</t>
+  </si>
+  <si>
+    <t>FAROOQ AHMAD KUMAR</t>
+  </si>
+  <si>
+    <t>ISHFAQ AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>IRSHAD AHMAD BHAT</t>
+  </si>
+  <si>
+    <t>TOTA GOJAR</t>
+  </si>
+  <si>
+    <t>FAROOQ  AHMAD RATHER</t>
+  </si>
+  <si>
+    <t>ALTAF AHMAD GOJER</t>
+  </si>
+  <si>
+    <t>ADIL AHMAD SHAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILAL AHMAD RATHER </t>
+  </si>
+  <si>
+    <t>SAJAD AHMAD WAZA</t>
+  </si>
+  <si>
+    <t>IRFAN AHMAD DAR</t>
+  </si>
+  <si>
+    <t>GHULAM QADIR CHECHI</t>
+  </si>
+  <si>
+    <t>NAZIR AHMAD DAR</t>
+  </si>
+  <si>
+    <t>NOOR MOHAMMAD KUMAR</t>
+  </si>
+  <si>
+    <t>MOHAMMAD YOUSUF GUJAR</t>
+  </si>
+  <si>
+    <t>MANZOOR AHMAD KHAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +515,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,8 +546,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +877,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08FCAA-3F6C-478E-A028-23DC316F9A5E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
@@ -480,10 +901,10 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -508,162 +929,2690 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="5">
+        <v>594</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="5">
+        <v>595</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="5">
+        <v>596</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="5">
+        <v>604</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>34</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="5">
+        <v>597</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="5">
+        <v>598</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>34</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="5">
+        <v>599</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="5">
+        <v>600</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>23</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5">
+        <v>601</v>
+      </c>
+      <c r="E10">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5">
+        <v>602</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>23</v>
+      </c>
+      <c r="I11">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5">
+        <v>603</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>34</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="5">
+        <v>605</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>34</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="5">
+        <v>606</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>34</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="5">
+        <v>607</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="5">
+        <v>608</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="5">
+        <v>609</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>34</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="5">
+        <v>610</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>34</v>
+      </c>
+      <c r="H18">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>23</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="5">
+        <v>611</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="5">
+        <v>612</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>23</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="5">
+        <v>613</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <v>23</v>
+      </c>
+      <c r="I21">
+        <v>23</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="5">
+        <v>614</v>
+      </c>
+      <c r="E22">
+        <v>40</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <v>23</v>
+      </c>
+      <c r="I22">
+        <v>23</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="5">
+        <v>615</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="5">
+        <v>879</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>23</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="5">
+        <v>882</v>
+      </c>
+      <c r="E25">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="5">
+        <v>854</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>34</v>
+      </c>
+      <c r="H26">
+        <v>23</v>
+      </c>
+      <c r="I26">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="5">
+        <v>864</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>34</v>
+      </c>
+      <c r="H27">
+        <v>23</v>
+      </c>
+      <c r="I27">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="5">
+        <v>874</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>34</v>
+      </c>
+      <c r="H28">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="5">
+        <v>876</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="5">
+        <v>880</v>
+      </c>
+      <c r="E30">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>34</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="5">
+        <v>883</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="5">
+        <v>884</v>
+      </c>
+      <c r="E32">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>34</v>
+      </c>
+      <c r="H32">
+        <v>23</v>
+      </c>
+      <c r="I32">
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="5">
+        <v>886</v>
+      </c>
+      <c r="E33">
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>34</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>23</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="5">
+        <v>885</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>34</v>
+      </c>
+      <c r="H34">
+        <v>23</v>
+      </c>
+      <c r="I34">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="5">
+        <v>888</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+      <c r="I35">
+        <v>23</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="5">
+        <v>893</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <v>23</v>
+      </c>
+      <c r="J36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5">
+        <v>895</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>23</v>
+      </c>
+      <c r="J37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5">
+        <v>891</v>
+      </c>
+      <c r="E38">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>34</v>
+      </c>
+      <c r="H38">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>23</v>
+      </c>
+      <c r="J38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="5">
+        <v>899</v>
+      </c>
+      <c r="E39">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>34</v>
+      </c>
+      <c r="H39">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>23</v>
+      </c>
+      <c r="J39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="5">
+        <v>896</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>50</v>
+      </c>
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="H40">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <v>23</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="5">
+        <v>853</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41">
+        <v>23</v>
+      </c>
+      <c r="I41">
+        <v>23</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="5">
+        <v>902</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>34</v>
+      </c>
+      <c r="H42">
+        <v>23</v>
+      </c>
+      <c r="I42">
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="5">
+        <v>903</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>34</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <v>23</v>
+      </c>
+      <c r="J43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="5">
+        <v>904</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>34</v>
+      </c>
+      <c r="H44">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>23</v>
+      </c>
+      <c r="J44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="5">
+        <v>906</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>34</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45">
+        <v>23</v>
+      </c>
+      <c r="J45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="5">
+        <v>907</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>34</v>
+      </c>
+      <c r="H46">
+        <v>23</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="J46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="5">
+        <v>908</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>34</v>
+      </c>
+      <c r="H47">
+        <v>23</v>
+      </c>
+      <c r="I47">
+        <v>23</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="5">
+        <v>910</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>34</v>
+      </c>
+      <c r="H48">
+        <v>23</v>
+      </c>
+      <c r="I48">
+        <v>23</v>
+      </c>
+      <c r="J48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="5">
+        <v>911</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>34</v>
+      </c>
+      <c r="H49">
+        <v>23</v>
+      </c>
+      <c r="I49">
+        <v>23</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="5">
+        <v>913</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <v>50</v>
+      </c>
+      <c r="G50">
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <v>23</v>
+      </c>
+      <c r="I50">
+        <v>23</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" s="5">
+        <v>901</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>34</v>
+      </c>
+      <c r="H51">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <v>23</v>
+      </c>
+      <c r="J51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="5">
+        <v>915</v>
+      </c>
+      <c r="E52">
+        <v>40</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>34</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <v>23</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" s="5">
+        <v>916</v>
+      </c>
+      <c r="E53">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>50</v>
+      </c>
+      <c r="G53">
+        <v>34</v>
+      </c>
+      <c r="H53">
+        <v>23</v>
+      </c>
+      <c r="I53">
+        <v>23</v>
+      </c>
+      <c r="J53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="5">
+        <v>897</v>
+      </c>
+      <c r="E54">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>50</v>
+      </c>
+      <c r="G54">
+        <v>34</v>
+      </c>
+      <c r="H54">
+        <v>23</v>
+      </c>
+      <c r="I54">
+        <v>23</v>
+      </c>
+      <c r="J54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="5">
+        <v>898</v>
+      </c>
+      <c r="E55">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>50</v>
+      </c>
+      <c r="G55">
+        <v>34</v>
+      </c>
+      <c r="H55">
+        <v>23</v>
+      </c>
+      <c r="I55">
+        <v>23</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="5">
+        <v>892</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>34</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56">
+        <v>23</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="5">
+        <v>894</v>
+      </c>
+      <c r="E57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>34</v>
+      </c>
+      <c r="H57">
+        <v>23</v>
+      </c>
+      <c r="I57">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="5">
+        <v>143</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>50</v>
+      </c>
+      <c r="G58">
+        <v>34</v>
+      </c>
+      <c r="H58">
+        <v>23</v>
+      </c>
+      <c r="I58">
+        <v>23</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" s="5">
+        <v>145</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59">
+        <v>34</v>
+      </c>
+      <c r="H59">
+        <v>23</v>
+      </c>
+      <c r="I59">
+        <v>23</v>
+      </c>
+      <c r="J59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="5">
+        <v>146</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>34</v>
+      </c>
+      <c r="H60">
+        <v>23</v>
+      </c>
+      <c r="I60">
+        <v>23</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="5">
+        <v>147</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>34</v>
+      </c>
+      <c r="H61">
+        <v>23</v>
+      </c>
+      <c r="I61">
+        <v>23</v>
+      </c>
+      <c r="J61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="5">
+        <v>149</v>
+      </c>
+      <c r="E62">
+        <v>40</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>34</v>
+      </c>
+      <c r="H62">
+        <v>23</v>
+      </c>
+      <c r="I62">
+        <v>23</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="5">
+        <v>152</v>
+      </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>50</v>
+      </c>
+      <c r="G63">
+        <v>34</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>23</v>
+      </c>
+      <c r="J63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="5">
+        <v>153</v>
+      </c>
+      <c r="E64">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>50</v>
+      </c>
+      <c r="G64">
+        <v>34</v>
+      </c>
+      <c r="H64">
+        <v>23</v>
+      </c>
+      <c r="I64">
+        <v>23</v>
+      </c>
+      <c r="J64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="5">
+        <v>154</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65">
+        <v>34</v>
+      </c>
+      <c r="H65">
+        <v>23</v>
+      </c>
+      <c r="I65">
+        <v>23</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="5">
+        <v>905</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>34</v>
+      </c>
+      <c r="H66">
+        <v>23</v>
+      </c>
+      <c r="I66">
+        <v>23</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="5">
+        <v>909</v>
+      </c>
+      <c r="E67">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>34</v>
+      </c>
+      <c r="H67">
+        <v>23</v>
+      </c>
+      <c r="I67">
+        <v>23</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="5">
+        <v>912</v>
+      </c>
+      <c r="E68">
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>50</v>
+      </c>
+      <c r="G68">
+        <v>34</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
+      </c>
+      <c r="I68">
+        <v>23</v>
+      </c>
+      <c r="J68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="5">
+        <v>914</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>34</v>
+      </c>
+      <c r="H69">
+        <v>23</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+      <c r="J69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="5">
+        <v>925</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>34</v>
+      </c>
+      <c r="H70">
+        <v>23</v>
+      </c>
+      <c r="I70">
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="5">
+        <v>926</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>34</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+      <c r="I71">
+        <v>23</v>
+      </c>
+      <c r="J71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>101</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>23</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>102</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>23</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>103</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>23</v>
-      </c>
-      <c r="J5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>104</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>23</v>
-      </c>
-      <c r="J6">
+      <c r="C72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="5">
+        <v>148</v>
+      </c>
+      <c r="E72">
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>34</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>23</v>
+      </c>
+      <c r="J72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="5">
+        <v>150</v>
+      </c>
+      <c r="E73">
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>50</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>23</v>
+      </c>
+      <c r="I73">
+        <v>23</v>
+      </c>
+      <c r="J73">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" s="5">
+        <v>151</v>
+      </c>
+      <c r="E74">
+        <v>40</v>
+      </c>
+      <c r="F74">
+        <v>50</v>
+      </c>
+      <c r="G74">
+        <v>34</v>
+      </c>
+      <c r="H74">
+        <v>23</v>
+      </c>
+      <c r="I74">
+        <v>23</v>
+      </c>
+      <c r="J74">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="5">
+        <v>155</v>
+      </c>
+      <c r="E75">
+        <v>40</v>
+      </c>
+      <c r="F75">
+        <v>50</v>
+      </c>
+      <c r="G75">
+        <v>34</v>
+      </c>
+      <c r="H75">
+        <v>23</v>
+      </c>
+      <c r="I75">
+        <v>23</v>
+      </c>
+      <c r="J75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="5">
+        <v>156</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>34</v>
+      </c>
+      <c r="H76">
+        <v>23</v>
+      </c>
+      <c r="I76">
+        <v>23</v>
+      </c>
+      <c r="J76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="5">
+        <v>157</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>34</v>
+      </c>
+      <c r="H77">
+        <v>23</v>
+      </c>
+      <c r="I77">
+        <v>23</v>
+      </c>
+      <c r="J77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="5">
+        <v>158</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>34</v>
+      </c>
+      <c r="H78">
+        <v>23</v>
+      </c>
+      <c r="I78">
+        <v>23</v>
+      </c>
+      <c r="J78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79" s="5">
+        <v>159</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+      <c r="G79">
+        <v>34</v>
+      </c>
+      <c r="H79">
+        <v>23</v>
+      </c>
+      <c r="I79">
+        <v>23</v>
+      </c>
+      <c r="J79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="5">
+        <v>160</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>34</v>
+      </c>
+      <c r="H80">
+        <v>23</v>
+      </c>
+      <c r="I80">
+        <v>23</v>
+      </c>
+      <c r="J80">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="5">
+        <v>161</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>23</v>
+      </c>
+      <c r="I81">
+        <v>23</v>
+      </c>
+      <c r="J81">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="5">
+        <v>162</v>
+      </c>
+      <c r="E82">
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>50</v>
+      </c>
+      <c r="G82">
+        <v>34</v>
+      </c>
+      <c r="H82">
+        <v>23</v>
+      </c>
+      <c r="I82">
+        <v>23</v>
+      </c>
+      <c r="J82">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D83" s="5">
+        <v>163</v>
+      </c>
+      <c r="E83">
+        <v>40</v>
+      </c>
+      <c r="F83">
+        <v>50</v>
+      </c>
+      <c r="G83">
+        <v>34</v>
+      </c>
+      <c r="H83">
+        <v>23</v>
+      </c>
+      <c r="I83">
+        <v>23</v>
+      </c>
+      <c r="J83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="5">
+        <v>164</v>
+      </c>
+      <c r="E84">
+        <v>40</v>
+      </c>
+      <c r="F84">
+        <v>50</v>
+      </c>
+      <c r="G84">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>23</v>
+      </c>
+      <c r="I84">
+        <v>23</v>
+      </c>
+      <c r="J84">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="5">
+        <v>165</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>34</v>
+      </c>
+      <c r="H85">
+        <v>23</v>
+      </c>
+      <c r="I85">
+        <v>23</v>
+      </c>
+      <c r="J85">
         <v>50</v>
       </c>
     </row>

--- a/public/SUMMATIVE ASSESSMENT.xlsx
+++ b/public/SUMMATIVE ASSESSMENT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900EB812-7D8F-46B1-A5CA-C30F095C6CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8316E0-BF7D-4265-9524-2DB78BD78A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDE87D37-6CC1-440A-B645-24F1BA7D41A2}"/>
   </bookViews>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08FCAA-3F6C-478E-A028-23DC316F9A5E}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
